--- a/Multiplos de 13.xlsx
+++ b/Multiplos de 13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MUESTRA" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,11 +704,12 @@
     <xf numFmtId="2" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2430,7 @@
         <f>B13/13</f>
         <v>6.0769230769230766</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="80">
         <v>7</v>
       </c>
       <c r="E13" s="13">
@@ -2438,7 +2439,7 @@
       <c r="F13" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="80">
         <v>7</v>
       </c>
       <c r="H13" s="13">
@@ -2447,13 +2448,13 @@
       <c r="I13" s="13">
         <v>6</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="80">
         <v>7</v>
       </c>
       <c r="K13" s="13">
         <v>6</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="80">
         <v>7</v>
       </c>
       <c r="M13" s="13">
@@ -2462,7 +2463,7 @@
       <c r="N13" s="13">
         <v>6</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="80">
         <v>7</v>
       </c>
       <c r="P13" s="13">
@@ -2807,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3425,20 +3426,20 @@
         <v>12</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -3453,20 +3454,20 @@
         <f>+B11*12/(52*4)</f>
         <v>42.75</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -3475,20 +3476,20 @@
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -4047,20 +4048,20 @@
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
@@ -4069,23 +4070,23 @@
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78">
         <f>+Q21*12</f>
         <v>8736</v>
       </c>
-      <c r="Q23" s="77"/>
+      <c r="Q23" s="78"/>
       <c r="R23" s="76">
         <f>+P23/(52*4)</f>
         <v>42</v>
@@ -4099,6 +4100,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -4113,27 +4135,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4588,20 +4589,20 @@
         <v>13</v>
       </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
@@ -4609,20 +4610,20 @@
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
@@ -4630,20 +4631,20 @@
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
@@ -5065,20 +5066,20 @@
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
@@ -5086,18 +5087,18 @@
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39">
         <f>+Q17*12</f>
@@ -5111,6 +5112,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="D9:E9"/>
@@ -5127,24 +5146,6 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
